--- a/biology/Médecine/1613_en_santé_et_médecine/1613_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1613_en_santé_et_médecine/1613_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1613_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1613_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1613 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1613_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1613_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>La chaire de médecine de l'université d'Uppsala en Suède, vacante depuis sa fondation en 1595, est occupée pour la première fois, par Johannes Chesnecopherus (sv)[1].
-1611-1613 : « il y [a] dans le terroir d'Arles une si grande quantité de sauterelles qu'elles obscurciss[ent] le soleil[2] ».
-1613-1618 : la parution de la Gygantostéologie[3] de Nicolas Habicot († 1624, chirurgien du duc de Nemours[4]) « ouvre une querelle sur l'existence et la taille des géants, qui oppos[e] historiens, médecins et chirurgiens » et à laquelle la  Gigantologie[5]. de Jean Riolan le Jeune mettra fin en concluant à l'imposture[6],[7],[8].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>La chaire de médecine de l'université d'Uppsala en Suède, vacante depuis sa fondation en 1595, est occupée pour la première fois, par Johannes Chesnecopherus (sv).
+1611-1613 : « il y [a] dans le terroir d'Arles une si grande quantité de sauterelles qu'elles obscurciss[ent] le soleil ».
+1613-1618 : la parution de la Gygantostéologie de Nicolas Habicot († 1624, chirurgien du duc de Nemours) « ouvre une querelle sur l'existence et la taille des géants, qui oppos[e] historiens, médecins et chirurgiens » et à laquelle la  Gigantologie. de Jean Riolan le Jeune mettra fin en concluant à l'imposture.</t>
         </is>
       </c>
     </row>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1613_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1613_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,10 +557,12 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Parution, à Brescia, chez Bartolomeo Fontana, des Secreti universali de Florian Canale (1575 – ap. 1612[9]).
-Jean Riolan le Jeune fait paraître son Osteologia[10], ainsi qu'une  Gigantomachie « pour répondre à la Gygantostéologie » de Nicolas Habicot[11].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Parution, à Brescia, chez Bartolomeo Fontana, des Secreti universali de Florian Canale (1575 – ap. 1612).
+Jean Riolan le Jeune fait paraître son Osteologia, ainsi qu'une  Gigantomachie « pour répondre à la Gygantostéologie » de Nicolas Habicot.</t>
         </is>
       </c>
     </row>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1613_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1613_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,9 +590,11 @@
           <t>Naissance</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Claude Perrault (mort en 1688), médecin et architecte français[12].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Claude Perrault (mort en 1688), médecin et architecte français.</t>
         </is>
       </c>
     </row>
@@ -586,7 +604,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1613_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1613_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -604,10 +622,12 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Jacques Guillemeau (né en 1549), chirurgien et obstétricien français, auteur en 1585 d'un Traité des maladies de l’œil[13], premier du genre en langue française[14].
-Pierre Pigray (né vers 1532), médecin des rois Henri IV et Louis XIII[15],[16].</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Jacques Guillemeau (né en 1549), chirurgien et obstétricien français, auteur en 1585 d'un Traité des maladies de l’œil, premier du genre en langue française.
+Pierre Pigray (né vers 1532), médecin des rois Henri IV et Louis XIII,.</t>
         </is>
       </c>
     </row>
